--- a/VersionRecords/Version LoanReport/BS权限/新增权限配置表.xlsx
+++ b/VersionRecords/Version LoanReport/BS权限/新增权限配置表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Mogo_Doc\VersionRecords\Version LoanReport\BS权限\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>级别</t>
   </si>
@@ -86,23 +86,43 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>yuefuReport/findYuefuFunneChart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月付漏斗报表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>蘑菇金融--月付报表--月付漏斗报表</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>yuefuReport/findYuefuFunneChart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>月付漏斗报表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>是</t>
+    <t>loanManageExport/exportYuefuFunne</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇金融--月付报表--月付漏斗报表--月付漏斗报表导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>月付漏斗报表导出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bs</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -653,7 +673,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -732,7 +752,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>10</v>
@@ -750,16 +770,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="D4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>10</v>
@@ -773,14 +793,30 @@
       <c r="I4" s="4"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>13</v>
+      </c>
       <c r="I5" s="4"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
